--- a/logs/attendance_2025-05-31.xlsx
+++ b/logs/attendance_2025-05-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,11 +457,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>911</v>
+        <v>456</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ishraq Jamal</t>
+          <t>John Sprakle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -472,18 +472,34 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A3" t="n">
+        <v>789456</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ShaheerJamal</t>
+          <t>Shaheer Jamal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>2025-05-31</t>
         </is>
